--- a/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/040_画面設計/画面一覧_A1_プロジェクト管理システム.xlsx
@@ -345,34 +345,7 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>ユーザIDとパスワードを入力し、Form認証を行う。</t>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>ログアウトする。</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>画面上で発生したエラーについてその内容と対処方法をユーザに表示する。
-(便宜上ログインに分類しているが、サブシステム内共通)</t>
-    <rPh sb="36" eb="38">
-      <t>ベンギ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>キョウツウ</t>
-    </rPh>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -502,6 +475,39 @@
   </si>
   <si>
     <t>TIS</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>発生したエラーの内容をユーザに表示する。
+(便宜上ログインに分類しているが、サブシステム内共通)</t>
+    <rPh sb="0" eb="2">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ベンギ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ログインIDとパスワードを入力し、Form認証を行う。</t>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1745,6 +1751,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1781,98 +1805,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="22" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -3331,7 +3337,7 @@
       <c r="C1" s="91"/>
       <c r="D1" s="92"/>
       <c r="E1" s="93" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F1" s="94"/>
       <c r="G1" s="94"/>
@@ -3389,7 +3395,7 @@
       <c r="C2" s="91"/>
       <c r="D2" s="92"/>
       <c r="E2" s="93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2" s="94"/>
       <c r="G2" s="94"/>
@@ -3443,7 +3449,7 @@
       <c r="C3" s="91"/>
       <c r="D3" s="92"/>
       <c r="E3" s="93" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F3" s="94"/>
       <c r="G3" s="94"/>
@@ -3563,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="132" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="133"/>
       <c r="D8" s="134">
@@ -3572,12 +3578,12 @@
       <c r="E8" s="135"/>
       <c r="F8" s="136"/>
       <c r="G8" s="137" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H8" s="138"/>
       <c r="I8" s="133"/>
       <c r="J8" s="139" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K8" s="140"/>
       <c r="L8" s="140"/>
@@ -3586,7 +3592,7 @@
       <c r="O8" s="140"/>
       <c r="P8" s="141"/>
       <c r="Q8" s="142" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R8" s="143"/>
       <c r="S8" s="143"/>
@@ -3603,7 +3609,7 @@
       <c r="AD8" s="143"/>
       <c r="AE8" s="144"/>
       <c r="AF8" s="139" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AG8" s="140"/>
       <c r="AH8" s="140"/>
@@ -6552,23 +6558,23 @@
       <c r="L1" s="94"/>
       <c r="M1" s="94"/>
       <c r="N1" s="95"/>
-      <c r="O1" s="177" t="s">
+      <c r="O1" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="179"/>
-      <c r="S1" s="168" t="str">
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="184"/>
+      <c r="S1" s="173" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面一覧</v>
       </c>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="170"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="175"/>
       <c r="AA1" s="90" t="s">
         <v>3</v>
       </c>
@@ -6629,18 +6635,18 @@
       <c r="L2" s="94"/>
       <c r="M2" s="94"/>
       <c r="N2" s="95"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="172"/>
-      <c r="Y2" s="172"/>
-      <c r="Z2" s="173"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="178"/>
       <c r="AA2" s="90" t="s">
         <v>4</v>
       </c>
@@ -6701,18 +6707,18 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
       <c r="N3" s="95"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="184"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="176"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="189"/>
+      <c r="Q3" s="189"/>
+      <c r="R3" s="190"/>
+      <c r="S3" s="179"/>
+      <c r="T3" s="180"/>
+      <c r="U3" s="180"/>
+      <c r="V3" s="180"/>
+      <c r="W3" s="180"/>
+      <c r="X3" s="180"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="181"/>
       <c r="AA3" s="90"/>
       <c r="AB3" s="92"/>
       <c r="AC3" s="117" t="str">
@@ -6898,47 +6904,47 @@
       <c r="C7" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="186" t="s">
+      <c r="D7" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="187"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="186" t="s">
+      <c r="E7" s="168"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="188"/>
-      <c r="L7" s="189" t="s">
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="190"/>
-      <c r="N7" s="191"/>
-      <c r="O7" s="186" t="s">
+      <c r="M7" s="171"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="187"/>
-      <c r="Q7" s="187"/>
-      <c r="R7" s="187"/>
-      <c r="S7" s="188"/>
-      <c r="T7" s="186" t="s">
+      <c r="P7" s="168"/>
+      <c r="Q7" s="168"/>
+      <c r="R7" s="168"/>
+      <c r="S7" s="169"/>
+      <c r="T7" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="187"/>
-      <c r="V7" s="187"/>
-      <c r="W7" s="187"/>
-      <c r="X7" s="187"/>
-      <c r="Y7" s="187"/>
-      <c r="Z7" s="187"/>
-      <c r="AA7" s="187"/>
-      <c r="AB7" s="187"/>
-      <c r="AC7" s="187"/>
-      <c r="AD7" s="187"/>
-      <c r="AE7" s="187"/>
-      <c r="AF7" s="187"/>
-      <c r="AG7" s="187"/>
-      <c r="AH7" s="188"/>
+      <c r="U7" s="168"/>
+      <c r="V7" s="168"/>
+      <c r="W7" s="168"/>
+      <c r="X7" s="168"/>
+      <c r="Y7" s="168"/>
+      <c r="Z7" s="168"/>
+      <c r="AA7" s="168"/>
+      <c r="AB7" s="168"/>
+      <c r="AC7" s="168"/>
+      <c r="AD7" s="168"/>
+      <c r="AE7" s="168"/>
+      <c r="AF7" s="168"/>
+      <c r="AG7" s="168"/>
+      <c r="AH7" s="169"/>
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
@@ -6966,32 +6972,32 @@
       <c r="C8" s="60">
         <v>1</v>
       </c>
-      <c r="D8" s="152" t="s">
+      <c r="D8" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="153"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="152" t="s">
+      <c r="E8" s="159"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="149" t="s">
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="150"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="149" t="s">
+      <c r="M8" s="156"/>
+      <c r="N8" s="157"/>
+      <c r="O8" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="150"/>
-      <c r="R8" s="150"/>
-      <c r="S8" s="151"/>
-      <c r="T8" s="149" t="s">
-        <v>45</v>
+      <c r="P8" s="156"/>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="156"/>
+      <c r="S8" s="157"/>
+      <c r="T8" s="155" t="s">
+        <v>59</v>
       </c>
       <c r="U8" s="127"/>
       <c r="V8" s="127"/>
@@ -7034,28 +7040,28 @@
       <c r="C9" s="60">
         <v>2</v>
       </c>
-      <c r="D9" s="155"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="149" t="s">
+      <c r="D9" s="161"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="150"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="149" t="s">
+      <c r="M9" s="156"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="150"/>
-      <c r="Q9" s="150"/>
-      <c r="R9" s="150"/>
-      <c r="S9" s="151"/>
-      <c r="T9" s="149" t="s">
-        <v>46</v>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="156"/>
+      <c r="S9" s="157"/>
+      <c r="T9" s="155" t="s">
+        <v>45</v>
       </c>
       <c r="U9" s="127"/>
       <c r="V9" s="127"/>
@@ -7088,43 +7094,43 @@
       <c r="C10" s="60">
         <v>3</v>
       </c>
-      <c r="D10" s="155"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="164" t="s">
+      <c r="D10" s="161"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="162"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="165"/>
-      <c r="N10" s="166"/>
-      <c r="O10" s="164" t="s">
+      <c r="M10" s="153"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="165"/>
-      <c r="Q10" s="165"/>
-      <c r="R10" s="165"/>
-      <c r="S10" s="166"/>
-      <c r="T10" s="167" t="s">
-        <v>54</v>
-      </c>
-      <c r="U10" s="162"/>
-      <c r="V10" s="162"/>
-      <c r="W10" s="162"/>
-      <c r="X10" s="162"/>
-      <c r="Y10" s="162"/>
-      <c r="Z10" s="162"/>
-      <c r="AA10" s="162"/>
-      <c r="AB10" s="162"/>
-      <c r="AC10" s="162"/>
-      <c r="AD10" s="162"/>
-      <c r="AE10" s="162"/>
-      <c r="AF10" s="162"/>
-      <c r="AG10" s="162"/>
-      <c r="AH10" s="163"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="191" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" s="150"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="150"/>
+      <c r="Z10" s="150"/>
+      <c r="AA10" s="150"/>
+      <c r="AB10" s="150"/>
+      <c r="AC10" s="150"/>
+      <c r="AD10" s="150"/>
+      <c r="AE10" s="150"/>
+      <c r="AF10" s="150"/>
+      <c r="AG10" s="150"/>
+      <c r="AH10" s="151"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -7142,43 +7148,43 @@
       <c r="C11" s="60">
         <v>4</v>
       </c>
-      <c r="D11" s="158"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="164" t="s">
+      <c r="D11" s="164"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="165"/>
-      <c r="N11" s="166"/>
-      <c r="O11" s="164" t="s">
+      <c r="M11" s="153"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="165"/>
-      <c r="Q11" s="165"/>
-      <c r="R11" s="165"/>
-      <c r="S11" s="166"/>
-      <c r="T11" s="167" t="s">
-        <v>47</v>
-      </c>
-      <c r="U11" s="162"/>
-      <c r="V11" s="162"/>
-      <c r="W11" s="162"/>
-      <c r="X11" s="162"/>
-      <c r="Y11" s="162"/>
-      <c r="Z11" s="162"/>
-      <c r="AA11" s="162"/>
-      <c r="AB11" s="162"/>
-      <c r="AC11" s="162"/>
-      <c r="AD11" s="162"/>
-      <c r="AE11" s="162"/>
-      <c r="AF11" s="162"/>
-      <c r="AG11" s="162"/>
-      <c r="AH11" s="163"/>
+      <c r="P11" s="153"/>
+      <c r="Q11" s="153"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="154"/>
+      <c r="T11" s="191" t="s">
+        <v>58</v>
+      </c>
+      <c r="U11" s="150"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="150"/>
+      <c r="X11" s="150"/>
+      <c r="Y11" s="150"/>
+      <c r="Z11" s="150"/>
+      <c r="AA11" s="150"/>
+      <c r="AB11" s="150"/>
+      <c r="AC11" s="150"/>
+      <c r="AD11" s="150"/>
+      <c r="AE11" s="150"/>
+      <c r="AF11" s="150"/>
+      <c r="AG11" s="150"/>
+      <c r="AH11" s="151"/>
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
@@ -7196,47 +7202,47 @@
       <c r="C12" s="60">
         <v>5</v>
       </c>
-      <c r="D12" s="152" t="s">
+      <c r="D12" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="153"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="152" t="s">
+      <c r="E12" s="159"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="164" t="s">
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="165"/>
-      <c r="N12" s="166"/>
-      <c r="O12" s="164" t="s">
+      <c r="M12" s="153"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="165"/>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="165"/>
-      <c r="S12" s="166"/>
-      <c r="T12" s="164" t="s">
-        <v>57</v>
-      </c>
-      <c r="U12" s="162"/>
-      <c r="V12" s="162"/>
-      <c r="W12" s="162"/>
-      <c r="X12" s="162"/>
-      <c r="Y12" s="162"/>
-      <c r="Z12" s="162"/>
-      <c r="AA12" s="162"/>
-      <c r="AB12" s="162"/>
-      <c r="AC12" s="162"/>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="162"/>
-      <c r="AF12" s="162"/>
-      <c r="AG12" s="162"/>
-      <c r="AH12" s="163"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="154"/>
+      <c r="T12" s="152" t="s">
+        <v>55</v>
+      </c>
+      <c r="U12" s="150"/>
+      <c r="V12" s="150"/>
+      <c r="W12" s="150"/>
+      <c r="X12" s="150"/>
+      <c r="Y12" s="150"/>
+      <c r="Z12" s="150"/>
+      <c r="AA12" s="150"/>
+      <c r="AB12" s="150"/>
+      <c r="AC12" s="150"/>
+      <c r="AD12" s="150"/>
+      <c r="AE12" s="150"/>
+      <c r="AF12" s="150"/>
+      <c r="AG12" s="150"/>
+      <c r="AH12" s="151"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
@@ -7254,28 +7260,28 @@
       <c r="C13" s="60">
         <v>6</v>
       </c>
-      <c r="D13" s="155"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="149" t="s">
+      <c r="D13" s="161"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="163"/>
+      <c r="L13" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="150"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="149" t="s">
+      <c r="M13" s="156"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="150"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="150"/>
-      <c r="S13" s="151"/>
-      <c r="T13" s="149" t="s">
-        <v>55</v>
+      <c r="P13" s="156"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="157"/>
+      <c r="T13" s="155" t="s">
+        <v>53</v>
       </c>
       <c r="U13" s="127"/>
       <c r="V13" s="127"/>
@@ -7308,28 +7314,28 @@
       <c r="C14" s="60">
         <v>7</v>
       </c>
-      <c r="D14" s="155"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="157"/>
-      <c r="L14" s="149" t="s">
+      <c r="D14" s="161"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="150"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="149" t="s">
+      <c r="M14" s="156"/>
+      <c r="N14" s="157"/>
+      <c r="O14" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="150"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="150"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="149" t="s">
-        <v>56</v>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="157"/>
+      <c r="T14" s="155" t="s">
+        <v>54</v>
       </c>
       <c r="U14" s="127"/>
       <c r="V14" s="127"/>
@@ -7368,29 +7374,29 @@
       <c r="I15" s="127"/>
       <c r="J15" s="127"/>
       <c r="K15" s="128"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="165"/>
-      <c r="Q15" s="165"/>
-      <c r="R15" s="165"/>
-      <c r="S15" s="166"/>
-      <c r="T15" s="161"/>
-      <c r="U15" s="162"/>
-      <c r="V15" s="162"/>
-      <c r="W15" s="162"/>
-      <c r="X15" s="162"/>
-      <c r="Y15" s="162"/>
-      <c r="Z15" s="162"/>
-      <c r="AA15" s="162"/>
-      <c r="AB15" s="162"/>
-      <c r="AC15" s="162"/>
-      <c r="AD15" s="162"/>
-      <c r="AE15" s="162"/>
-      <c r="AF15" s="162"/>
-      <c r="AG15" s="162"/>
-      <c r="AH15" s="163"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="154"/>
+      <c r="T15" s="149"/>
+      <c r="U15" s="150"/>
+      <c r="V15" s="150"/>
+      <c r="W15" s="150"/>
+      <c r="X15" s="150"/>
+      <c r="Y15" s="150"/>
+      <c r="Z15" s="150"/>
+      <c r="AA15" s="150"/>
+      <c r="AB15" s="150"/>
+      <c r="AC15" s="150"/>
+      <c r="AD15" s="150"/>
+      <c r="AE15" s="150"/>
+      <c r="AF15" s="150"/>
+      <c r="AG15" s="150"/>
+      <c r="AH15" s="151"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.15">
       <c r="C16" s="60"/>
@@ -7402,29 +7408,29 @@
       <c r="I16" s="127"/>
       <c r="J16" s="127"/>
       <c r="K16" s="128"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="162"/>
-      <c r="S16" s="163"/>
-      <c r="T16" s="161"/>
-      <c r="U16" s="162"/>
-      <c r="V16" s="162"/>
-      <c r="W16" s="162"/>
-      <c r="X16" s="162"/>
-      <c r="Y16" s="162"/>
-      <c r="Z16" s="162"/>
-      <c r="AA16" s="162"/>
-      <c r="AB16" s="162"/>
-      <c r="AC16" s="162"/>
-      <c r="AD16" s="162"/>
-      <c r="AE16" s="162"/>
-      <c r="AF16" s="162"/>
-      <c r="AG16" s="162"/>
-      <c r="AH16" s="163"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="149"/>
+      <c r="P16" s="150"/>
+      <c r="Q16" s="150"/>
+      <c r="R16" s="150"/>
+      <c r="S16" s="151"/>
+      <c r="T16" s="149"/>
+      <c r="U16" s="150"/>
+      <c r="V16" s="150"/>
+      <c r="W16" s="150"/>
+      <c r="X16" s="150"/>
+      <c r="Y16" s="150"/>
+      <c r="Z16" s="150"/>
+      <c r="AA16" s="150"/>
+      <c r="AB16" s="150"/>
+      <c r="AC16" s="150"/>
+      <c r="AD16" s="150"/>
+      <c r="AE16" s="150"/>
+      <c r="AF16" s="150"/>
+      <c r="AG16" s="150"/>
+      <c r="AH16" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="57">
@@ -7444,15 +7450,6 @@
     <mergeCell ref="O9:S9"/>
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="O11:S11"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -7469,22 +7466,31 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D8:F11"/>
+    <mergeCell ref="G8:K11"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:S7"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="G16:K16"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="L16:N16"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="G15:K15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D8:F11"/>
-    <mergeCell ref="G8:K11"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
